--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori3/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori3/67/word_level_predictions_67.xlsx
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2045,11 +2045,11 @@
         </is>
       </c>
       <c r="I31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2097,11 +2097,11 @@
         </is>
       </c>
       <c r="I32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K32" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori3/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori3/67/word_level_predictions_67.xlsx
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2045,11 +2045,11 @@
         </is>
       </c>
       <c r="I31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2097,11 +2097,11 @@
         </is>
       </c>
       <c r="I32" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K32" s="2" t="b">
